--- a/nw-update/依赖库更新.xlsx
+++ b/nw-update/依赖库更新.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>demorio</t>
   </si>
@@ -295,27 +295,447 @@
     </r>
   </si>
   <si>
+    <t>实现方式</t>
+  </si>
+  <si>
     <t>更新方式</t>
   </si>
   <si>
-    <t>注</t>
-  </si>
-  <si>
     <t>监控文件修改</t>
   </si>
   <si>
     <t>https://github.com/paulmillr/chokidar</t>
   </si>
   <si>
-    <t>npm install chokidar --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
-  </si>
-  <si>
+    <r>
+      <t>全是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>js</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
+      <t>实现</t>
+    </r>
+  </si>
+  <si>
+    <t>copy-paste</t>
+  </si>
+  <si>
+    <t>文件复制粘贴</t>
+  </si>
+  <si>
+    <t>梁冠宇</t>
+  </si>
+  <si>
+    <t>https://github.com/xavi-/node-copy-paste</t>
+  </si>
+  <si>
+    <t>依赖模块execSync/有C++实现，其他为JS</t>
+  </si>
+  <si>
+    <t>nw-gyp rebuild --target=0.12.2</t>
+  </si>
+  <si>
+    <t>csv to json</t>
+  </si>
+  <si>
+    <t>戴希诠</t>
+  </si>
+  <si>
+    <t>https://github.com/Keyang/node-csvtojson</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dbus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/Shouqun/node-dbus.git</t>
+  </si>
+  <si>
+    <t>有C++ addon</t>
+  </si>
+  <si>
+    <t>分支管理</t>
+  </si>
+  <si>
+    <t>file-stream</t>
+  </si>
+  <si>
+    <t>文件流传输</t>
+  </si>
+  <si>
+    <t>https://github.com/michaelrhodes/file-stream</t>
+  </si>
+  <si>
+    <t>fs-extra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改进版的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/jprichardson/node-fs-extra</t>
+  </si>
+  <si>
+    <t>全是js实现</t>
+  </si>
+  <si>
+    <t>不用</t>
+  </si>
+  <si>
+    <t>npm install getip --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/bevry/getmac</t>
+  </si>
+  <si>
+    <t>npm install getmac --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
+  </si>
+  <si>
+    <t>实现哈希表</t>
+  </si>
+  <si>
+    <t>https://github.com/chad3814/node-hashtable.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nw-gyp rebuild --target=0.12.0</t>
+  </si>
+  <si>
+    <t>使用github上的新分支，和原分支没有关系。</t>
+  </si>
+  <si>
+    <t>id3v2-parser</t>
+  </si>
+  <si>
+    <t>提取音乐信息</t>
+  </si>
+  <si>
+    <t>https://github.com/jquense/id3v2-info-parser.git</t>
+  </si>
+  <si>
+    <t>levelgraph</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/mcollina/levelgraph.git</t>
+  </si>
+  <si>
+    <t>依赖模块leveldown有C++实现</t>
+  </si>
+  <si>
+    <t>监控网络链接情况</t>
+  </si>
+  <si>
+    <t>自己实现</t>
+  </si>
+  <si>
+    <t>好像是王枫写的</t>
+  </si>
+  <si>
+    <r>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+  </si>
+  <si>
+    <t>git://github.com/nodegit/nodegit.git</t>
+  </si>
+  <si>
+    <r>
+      <t>全是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>js</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现，编译较费时。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>npm install;nw-gyp rebuild --target=0.12.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，需要安装依赖包zlib1g-dev libgcrypt11-dev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nwjs-v0.12.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及upstream-github完全跟踪github</t>
+    </r>
+  </si>
+  <si>
+    <t>node-notifier</t>
+  </si>
+  <si>
+    <t>目前不用，保留。</t>
+  </si>
+  <si>
+    <t>node-rsa</t>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>https://github.com/rzcoder/node-rsa</t>
+  </si>
+  <si>
+    <t>node-uuid</t>
+  </si>
+  <si>
+    <t>用于生成uuid</t>
+  </si>
+  <si>
+    <t>http://github.com/broofa/node-uuid</t>
+  </si>
+  <si>
+    <t>node-ffprobe</t>
+  </si>
+  <si>
+    <t>protobufjs</t>
+  </si>
+  <si>
+    <t>通信包编解码</t>
+  </si>
+  <si>
+    <t>https://github.com/dcodeIO/ProtoBuf.js.git</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异步流控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/kriskowal/q</t>
+  </si>
+  <si>
+    <t>发起请求</t>
+  </si>
+  <si>
+    <t>https://github.com/request/request</t>
+  </si>
+  <si>
+    <t>scan-fs</t>
+  </si>
+  <si>
+    <t>https://github.com/openlg/scan-fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlite3 </t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>git://github.com/mapbox/node-sqlite3.git</t>
+  </si>
+  <si>
+    <r>
+      <t>npm install sqlite3 --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> node-pre-gyp install --fallback-to-build</t>
+    </r>
+  </si>
+  <si>
+    <t>文件传输</t>
+  </si>
+  <si>
+    <t>https://github.com/substack/tape</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>好像全是</t>
     </r>
     <r>
@@ -336,121 +756,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>video-thumb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="10"/>
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>dbus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/Shouqun/node-dbus.git</t>
-  </si>
-  <si>
-    <t>nw-gyp rebuild --target=0.12.2</t>
-  </si>
-  <si>
-    <t>fs-extra</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>改进版的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/jprichardson/node-fs-extra</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mac</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/bevry/getmac</t>
-  </si>
-  <si>
-    <t>npm install getmac --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
-  </si>
-  <si>
-    <t>id3v2-parser</t>
-  </si>
-  <si>
-    <t>提取音乐文件信息</t>
-  </si>
-  <si>
-    <t>戴希诠</t>
-  </si>
-  <si>
-    <t>https://github.com/theporchrat/id3v2-info-parser.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdns </t>
-  </si>
-  <si>
-    <t>网络发现</t>
-  </si>
-  <si>
-    <t>不用</t>
-  </si>
-  <si>
-    <t>放弃</t>
-  </si>
-  <si>
-    <t>node-ffprobe</t>
-  </si>
-  <si>
+      <t>nw-gyp rebuild --target=0.8.4</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -459,7 +777,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>好像全是</t>
+      <t>可以</t>
     </r>
     <r>
       <rPr>
@@ -469,7 +787,7 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>js</t>
+      <t>--target=0.12.0</t>
     </r>
     <r>
       <rPr>
@@ -479,272 +797,6 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>脚本实现</t>
-    </r>
-  </si>
-  <si>
-    <t>node-notifier</t>
-  </si>
-  <si>
-    <t>目前不用，保留。</t>
-  </si>
-  <si>
-    <t>protobufjs</t>
-  </si>
-  <si>
-    <t>通信包编解码</t>
-  </si>
-  <si>
-    <t>梁冠宇</t>
-  </si>
-  <si>
-    <t>https://github.com/dcodeIO/ProtoBuf.js.git</t>
-  </si>
-  <si>
-    <t>scan-fs</t>
-  </si>
-  <si>
-    <t>文件传输</t>
-  </si>
-  <si>
-    <t>video-thumb</t>
-  </si>
-  <si>
-    <t>csv to json</t>
-  </si>
-  <si>
-    <t>file-stream</t>
-  </si>
-  <si>
-    <t>文件流传输</t>
-  </si>
-  <si>
-    <t>npm install getip --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
-  </si>
-  <si>
-    <t>实现哈希表</t>
-  </si>
-  <si>
-    <t>https://github.com/chad3814/node-hashtable.git</t>
-  </si>
-  <si>
-    <t>git clone https://github.com/chad3814/node-hashtable.git; npm install; nw-gyp rebuild --target=0.12.0</t>
-  </si>
-  <si>
-    <t>levelgraph</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>binding.gyp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，不能使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>npm rebuld</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，但npm install，npm update会将levelgraph的node_modules下的模块编译。好像全是js脚本实现， 模块leveldown下有c代码，需要单独编译。</t>
-    </r>
-  </si>
-  <si>
-    <t>监控网络链接情况</t>
-  </si>
-  <si>
-    <t>自己实现</t>
-  </si>
-  <si>
-    <t>好像是王枫写的</t>
-  </si>
-  <si>
-    <t>node实现git功能</t>
-  </si>
-  <si>
-    <t>git://github.com/nodegit/nodegit.git</t>
-  </si>
-  <si>
-    <r>
-      <t>npm update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nw-gyp rebuild --target=0.12.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--target=0.8.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功。更新方式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>npm install nodegit --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
-    </r>
-  </si>
-  <si>
-    <t>node-rsa</t>
-  </si>
-  <si>
-    <t>加密</t>
-  </si>
-  <si>
-    <t>https://github.com/rzcoder/node-rsa</t>
-  </si>
-  <si>
-    <t>发起请求</t>
-  </si>
-  <si>
-    <t>https://github.com/request/request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sqlite3 </t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>git://github.com/mapbox/node-sqlite3.git</t>
-  </si>
-  <si>
-    <r>
-      <t>npm install sqlite3 --build-from-source --runtime=node-webkit --target_arch=ia32 --target=$NODE_WEBKIT_VERSION</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> node-pre-gyp install --fallback-to-build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nw-gyp rebuild --target=0.8.4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--target=0.12.0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>不可以。</t>
     </r>
   </si>
@@ -755,39 +807,7 @@
     <t>https://github.com/websockets/ws.git</t>
   </si>
   <si>
-    <t>采用覆盖的方式：git checkout -b dev-rt;rm -rf *;git add -A;git commit -m "remove all files";git merget -X theirs github/master</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异步流控制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>promise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/kriskowal/q</t>
+    <t>采用覆盖的方式：git checkout -b dev-rt;rm -rf *;git add -A;git commit -m "remove all files";git merge -X theirs github/master</t>
   </si>
 </sst>
 </file>
@@ -795,15 +815,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -820,21 +866,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -860,14 +912,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -885,42 +937,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -933,6 +953,13 @@
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
     </font>
@@ -956,14 +983,28 @@
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color indexed="18"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="10"/>
-      <name val="方正书宋_GBK"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -982,7 +1023,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1071,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,19 +1095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,48 +1117,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1086,17 +1127,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,6 +1151,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1123,6 +1206,15 @@
       </top>
       <bottom style="double">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,205 +1233,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1348,47 +1389,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1774,10 +1837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.70833333333333" defaultRowHeight="15"/>
@@ -1787,6 +1850,8 @@
     <col min="3" max="3" width="12.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="42.775" customWidth="1"/>
     <col min="5" max="5" width="31.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.975" customWidth="1"/>
+    <col min="7" max="7" width="19.6083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1825,22 +1890,22 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1848,7 +1913,7 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1857,7 +1922,7 @@
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1865,7 +1930,7 @@
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1874,7 +1939,7 @@
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1882,7 +1947,7 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1891,7 +1956,7 @@
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1899,7 +1964,7 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1908,7 +1973,7 @@
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1916,7 +1981,7 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1925,7 +1990,7 @@
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1933,7 +1998,7 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1942,7 +2007,7 @@
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1972,16 +2037,16 @@
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1989,16 +2054,16 @@
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2006,7 +2071,7 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
@@ -2015,10 +2080,10 @@
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2026,16 +2091,16 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2043,17 +2108,17 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2061,7 +2126,7 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2070,7 +2135,7 @@
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2078,16 +2143,16 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2095,16 +2160,16 @@
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2112,7 +2177,7 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2121,7 +2186,7 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2129,16 +2194,16 @@
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2146,7 +2211,7 @@
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2155,7 +2220,7 @@
       <c r="E26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2163,16 +2228,16 @@
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2194,19 +2259,19 @@
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="G29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="12">
         <v>8</v>
       </c>
     </row>
@@ -2214,16 +2279,16 @@
       <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2231,16 +2296,16 @@
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2248,16 +2313,16 @@
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2279,16 +2344,16 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2296,19 +2361,19 @@
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="8" t="s">
+      <c r="G35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2316,16 +2381,16 @@
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2333,13 +2398,13 @@
       <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="36" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2379,16 +2444,16 @@
       <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2396,16 +2461,16 @@
       <c r="A46" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2413,16 +2478,16 @@
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2430,16 +2495,16 @@
       <c r="A48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2447,16 +2512,16 @@
       <c r="A49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2464,16 +2529,16 @@
       <c r="A50" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2481,16 +2546,16 @@
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2498,16 +2563,16 @@
       <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2515,26 +2580,26 @@
       <c r="A53" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" ht="75.95" customHeight="1" spans="5:6">
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="14" t="s">
         <v>82</v>
       </c>
       <c r="F55" t="s">
@@ -2542,19 +2607,19 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F57" s="15" t="s">
@@ -2562,467 +2627,514 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="59" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A59" s="16" t="s">
+      <c r="B59" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" ht="17.1" customHeight="1" spans="1:7">
+      <c r="A61" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="13" t="s">
+      <c r="B61" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D61" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" ht="15.95" customHeight="1" spans="1:6">
+      <c r="A63" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" s="6" customFormat="1" spans="1:6">
+      <c r="A64" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="23"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" s="7" customFormat="1" spans="1:7">
+      <c r="A66" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" s="8" customFormat="1" spans="1:7">
+      <c r="A70" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" customFormat="1" spans="1:6">
+      <c r="A73" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A60" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="16" t="s">
+      <c r="D73" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" s="6" customFormat="1" spans="1:6">
+      <c r="A74" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" s="6" customFormat="1" spans="1:6">
-      <c r="A63" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" s="6" customFormat="1" spans="1:6">
-      <c r="A64" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="23" t="s">
+      <c r="D76" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="16" t="s">
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" customFormat="1" spans="1:6">
+      <c r="A78" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" s="6" customFormat="1" spans="1:6">
+      <c r="A79" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" s="6" customFormat="1" spans="1:6">
-      <c r="A68" s="21" t="s">
+      <c r="D79" s="23"/>
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" s="6" customFormat="1" spans="1:6">
+      <c r="A80" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="23" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="16" t="s">
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="B82" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" s="6" customFormat="1" spans="1:6">
-      <c r="A70" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="23" t="s">
+      <c r="D82" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" s="6" customFormat="1" spans="1:6">
+      <c r="A83" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" s="6" customFormat="1" spans="1:6">
-      <c r="A73" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="16" t="s">
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" s="6" customFormat="1" spans="1:6">
+      <c r="A84" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" s="6" customFormat="1" spans="1:5">
-      <c r="A80" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" s="6" customFormat="1" spans="1:5">
-      <c r="A82" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="16" t="s">
+      <c r="C84" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="F84" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="B85" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="15"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="18"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D58" r:id="rId1" display="https://github.com/paulmillr/chokidar"/>
-    <hyperlink ref="D60" r:id="rId2" display="https://github.com/jprichardson/node-fs-extra"/>
+    <hyperlink ref="D60" r:id="rId1" display="https://github.com/Keyang/node-csvtojson"/>
+    <hyperlink ref="D63" r:id="rId2" display="https://github.com/jprichardson/node-fs-extra"/>
+    <hyperlink ref="D58" r:id="rId3" display="https://github.com/paulmillr/chokidar"/>
   </hyperlinks>
   <pageMargins left="0.786805555555556" right="0.786805555555556" top="1.02430555555556" bottom="1.02430555555556" header="0.786805555555556" footer="0.786805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
